--- a/Экраны.xlsx
+++ b/Экраны.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS2022\SolutionLearn8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9471B8-82C9-4AB5-89AA-E6BE6037808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04662D9B-2E56-41D2-AC6F-8A03B515DC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2A6F7D3-93B0-4B41-A896-037CA64421F5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2A6F7D3-93B0-4B41-A896-037CA64421F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7024492D-D1E2-4D7B-B021-AA678E09943A}">
   <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BL43" sqref="BL43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,38 +887,65 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
+      <c r="H46">
+        <v>2</v>
+      </c>
       <c r="AN46" s="1"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
+      <c r="H47">
+        <v>3</v>
+      </c>
       <c r="AN47" s="1"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
+      <c r="H48">
+        <v>4</v>
+      </c>
       <c r="AN48" s="1"/>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
+      <c r="H49">
+        <v>5</v>
+      </c>
       <c r="AN49" s="1"/>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
+      <c r="H50">
+        <v>6</v>
+      </c>
       <c r="AN50" s="1"/>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
+      <c r="H51">
+        <v>7</v>
+      </c>
       <c r="AN51" s="1"/>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
+      <c r="H52">
+        <v>8</v>
+      </c>
       <c r="AN52" s="1"/>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
+      <c r="H53">
+        <v>9</v>
+      </c>
       <c r="AN53" s="1"/>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
+      <c r="H54">
+        <v>10</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -935,6 +962,9 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
+      <c r="H55">
+        <v>11</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="P55" s="1"/>
       <c r="R55" s="1"/>
@@ -947,6 +977,9 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
+      <c r="H56">
+        <v>12</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="O56" s="1"/>
       <c r="S56" s="1"/>
@@ -958,6 +991,9 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
+      <c r="H57">
+        <v>13</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="O57" s="1"/>
       <c r="S57" s="1"/>
@@ -972,6 +1008,9 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
+      <c r="H58">
+        <v>14</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -987,6 +1026,9 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
+      <c r="H59">
+        <v>15</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="M59" s="1"/>
       <c r="O59" s="1"/>
@@ -998,6 +1040,9 @@
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
+      <c r="H60">
+        <v>16</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -1015,18 +1060,30 @@
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
+      <c r="H61">
+        <v>17</v>
+      </c>
       <c r="AN61" s="1"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
+      <c r="H62">
+        <v>18</v>
+      </c>
       <c r="AN62" s="1"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
+      <c r="H63">
+        <v>19</v>
+      </c>
       <c r="AN63" s="1"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
+      <c r="H64">
+        <v>20</v>
+      </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
